--- a/nmadb/480486.xlsx
+++ b/nmadb/480486.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afshin\Desktop\Working folder\St. Michael\NMA\DA_Particia\Verification_1st_NMA_n=54\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,15 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Treatments</t>
-  </si>
-  <si>
-    <t>Study id</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
   <si>
     <t>Harmful</t>
@@ -118,11 +107,20 @@
       <t>(t2 vs. t1)</t>
     </r>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -356,8 +354,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,7 +372,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,7 +446,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -483,7 +480,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,15 +655,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" style="16" customWidth="1"/>
@@ -684,40 +680,40 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="16.5" thickBot="1">
       <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -725,7 +721,7 @@
         <v>2009</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -745,6 +741,10 @@
       <c r="H2" s="10">
         <v>1.29</v>
       </c>
+      <c r="I2" s="10">
+        <f>(H2-G2)/(1.96^2)</f>
+        <v>0.3071636817992503</v>
+      </c>
       <c r="M2" s="18" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -760,7 +760,7 @@
         <v>2008</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9">
         <v>2</v>
@@ -779,6 +779,10 @@
       </c>
       <c r="H3" s="10">
         <v>1.73</v>
+      </c>
+      <c r="I3" s="10">
+        <f>(H3-G3)/(1.96^2)</f>
+        <v>0.18221574344023325</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="21"/>
@@ -786,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -794,7 +798,7 @@
         <v>2004</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9">
         <v>3</v>
@@ -813,6 +817,10 @@
       </c>
       <c r="H4" s="10">
         <v>21.54</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I9" si="0">(H4-G4)/(1.96^2)</f>
+        <v>5.5601832569762601</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="21"/>
@@ -820,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -828,7 +836,7 @@
         <v>2006</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="9">
         <v>4</v>
@@ -847,6 +855,10 @@
       </c>
       <c r="H5" s="10">
         <v>2.09</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.5414410662224074</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="21"/>
@@ -854,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1">
@@ -862,7 +874,7 @@
         <v>2005</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9">
         <v>5</v>
@@ -881,13 +893,17 @@
       </c>
       <c r="H6" s="10">
         <v>23.11</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9454394002498967</v>
       </c>
       <c r="M6" s="24"/>
       <c r="N6" s="22">
         <v>5</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -895,7 +911,7 @@
         <v>2006</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -914,6 +930,10 @@
       </c>
       <c r="H7" s="10">
         <v>1.38</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1613910870470637</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -921,7 +941,7 @@
         <v>1999</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
@@ -940,6 +960,13 @@
       </c>
       <c r="H8" s="10">
         <v>21.79</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>5.6226572261557681</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -947,7 +974,7 @@
         <v>1996</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9">
         <v>8</v>
@@ -966,6 +993,10 @@
       </c>
       <c r="H9" s="10">
         <v>0.91</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>0.18221574344023328</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1052,12 +1083,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1069,12 +1100,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
